--- a/biology/Mycologie/Cladonia_foliacea/Cladonia_foliacea.xlsx
+++ b/biology/Mycologie/Cladonia_foliacea/Cladonia_foliacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cladonia foliacea est une espèce lichénisée, non lichénicole[1], de la famille des Cladoniaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladonia foliacea est une espèce lichénisée, non lichénicole, de la famille des Cladoniaceae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de Cladonia foliacea vient du grec ancien κλάδος (kládos, « branche ») et du latin foliaceus (« foliacé »)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de Cladonia foliacea vient du grec ancien κλάδος (kládos, « branche ») et du latin foliaceus (« foliacé »).
 </t>
         </is>
       </c>
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Thalle
-Cladonia foliacea est un lichen à thalle complexe squamuleux[2]. Le thalle primaire est constitué de squamules abondantes et bien développées. La face supérieure du thalle primaire est verte et la face inférieure du thalle primaire est blanche avec des teintes de jaune[2],[3].
+          <t>Thalle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladonia foliacea est un lichen à thalle complexe squamuleux. Le thalle primaire est constitué de squamules abondantes et bien développées. La face supérieure du thalle primaire est verte et la face inférieure du thalle primaire est blanche avec des teintes de jaune,.
 Sec, il a une morphologie très recroquevillée, laissant largement apparaître la face inférieure du thalle primaire.
 Le thalle secondaire est formé de podétions dressés.
 </t>
@@ -578,12 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Habitat
-Cladonia foliacea est une espèce de lichens terricoles qui se rencontre principalement sur les pelouses[3].
-Répartition
-Répartition mondiale
-Répartition française
-Cladonia foliacea se retrouve dans la majorité des départements français[1].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladonia foliacea est une espèce de lichens terricoles qui se rencontre principalement sur les pelouses.
 </t>
         </is>
       </c>
@@ -609,18 +629,98 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Répartition française</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cladonia foliacea se retrouve dans la majorité des départements français.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces, formes et variétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sous-espèces
-Selon MycoBank                                            (5 février 2023)[4] :
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (5 février 2023) :
 Cladonia foliacea convoluta (Lam.) Clauzade &amp; Cl.Roux, 1985
 Cladonia foliacea endiviifolia (Dicks.) Boistel, 2010
-Cladonia foliacea foliacea (Huds.) Willd., 1787
-Formes
-Selon MycoBank                                            (5 février 2023)[4] :
+Cladonia foliacea foliacea (Huds.) Willd., 1787</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces, formes et variétés</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Formes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (5 février 2023) :
 Cladonia foliacea f. albidopiligera M.Choisy, 1951
 Cladonia foliacea f. centralls Anders, 1936
 Cladonia foliacea f. cladiensis (Heufl.) M.Choisy, 1951
@@ -630,9 +730,43 @@
 Cladonia foliacea f. placoides Harm., 1907
 Cladonia foliacea f. scyphosa (Schaer.) Harm., 1907
 Cladonia foliacea f. sessilis Wallr.
-Cladonia foliacea f. squamulosa A.Evans
-Variétés
-Selon MycoBank                                            (5 février 2023)[4] :
+Cladonia foliacea f. squamulosa A.Evans</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces, formes et variétés</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Variétés</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (5 février 2023) :
 Cladonia foliacea var. alcicornis (Lightf.) Schaer., 1823
 Cladonia foliacea var. convoluta (Lam.) Vain., 1894
 Cladonia foliacea var. endiviifolia (Dicks.) Schaer.
@@ -642,35 +776,37 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Cladonia_foliacea</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Cladonia foliacea (Huds.) Willd., 1787[4],[5].
-L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen foliaceus Huds., 1762[4].
-Cladonia foliacea a pour synonymes[4] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Cladonia foliacea (Huds.) Willd., 1787,.
+L'espèce a été initialement classée dans le genre Lichen sous le basionyme Lichen foliaceus Huds., 1762.
+Cladonia foliacea a pour synonymes :
 Cladonia angustiloba Ahti &amp; Aptroot, 2009
 Cladonia convoluta var. vagans Follmann, 1975
 Cladonia endiviaefolia (Dicks.) Fr. (1831), 1831
@@ -683,31 +819,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cladonia_foliacea</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mycologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cladonia_foliacea</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(la) Caroli Ludovici Willdenow, Florae Berolinensis prodromus, Inconnu, 1787 (lire en ligne)</t>
         </is>
